--- a/Data/Offense_2023.csv.xlsx
+++ b/Data/Offense_2023.csv.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\james\Desktop\Project_3\TouchdownProphet\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kobe/Desktop/TouchdownProphet/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{29C184F7-CF1A-47D3-9D6F-CDC1C3A1FCE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DB4AE4E-E144-2743-A752-DFE4819ED5C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11295" xr2:uid="{A020B41B-D628-456C-881F-1B204A59DBDB}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11300" xr2:uid="{A020B41B-D628-456C-881F-1B204A59DBDB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -111,12 +111,6 @@
     <t>1st Downs by Penalty</t>
   </si>
   <si>
-    <t>% of Drives resulting in Offensive Score</t>
-  </si>
-  <si>
-    <t>% of Drives resulting in Turnover</t>
-  </si>
-  <si>
     <t>Expected points contributed by all Offense</t>
   </si>
   <si>
@@ -223,6 +217,12 @@
   </si>
   <si>
     <t>Avg Tm/G</t>
+  </si>
+  <si>
+    <t>% Drives resulting in Offensive Score</t>
+  </si>
+  <si>
+    <t>% Drives resulting in Turnover</t>
   </si>
 </sst>
 </file>
@@ -576,16 +576,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7014E262-2205-4563-9C45-B7856D51D066}">
   <dimension ref="A1:AB36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="AA1" sqref="AA1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -662,21 +662,21 @@
         <v>24</v>
       </c>
       <c r="Z1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>27</v>
-      </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2">
         <v>17</v>
@@ -757,12 +757,12 @@
         <v>192.72</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C3">
         <v>17</v>
@@ -843,12 +843,12 @@
         <v>128.9</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C4">
         <v>17</v>
@@ -929,12 +929,12 @@
         <v>268.60000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C5">
         <v>17</v>
@@ -1015,12 +1015,12 @@
         <v>138.81</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C6">
         <v>17</v>
@@ -1101,12 +1101,12 @@
         <v>191.13</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C7">
         <v>17</v>
@@ -1187,12 +1187,12 @@
         <v>197.57</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C8">
         <v>17</v>
@@ -1273,12 +1273,12 @@
         <v>100.97</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C9">
         <v>17</v>
@@ -1359,12 +1359,12 @@
         <v>133.32</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C10">
         <v>17</v>
@@ -1445,12 +1445,12 @@
         <v>46.88</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C11">
         <v>17</v>
@@ -1531,12 +1531,12 @@
         <v>30.12</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C12">
         <v>17</v>
@@ -1617,12 +1617,12 @@
         <v>-110.55</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C13">
         <v>17</v>
@@ -1703,12 +1703,12 @@
         <v>156.77000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C14">
         <v>17</v>
@@ -1789,12 +1789,12 @@
         <v>44.11</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C15">
         <v>17</v>
@@ -1875,12 +1875,12 @@
         <v>13.64</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C16">
         <v>17</v>
@@ -1961,12 +1961,12 @@
         <v>87.96</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C17">
         <v>17</v>
@@ -2047,12 +2047,12 @@
         <v>41.53</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C18">
         <v>17</v>
@@ -2133,12 +2133,12 @@
         <v>62.33</v>
       </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C19">
         <v>17</v>
@@ -2219,12 +2219,12 @@
         <v>-10.73</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C20">
         <v>17</v>
@@ -2305,12 +2305,12 @@
         <v>7.68</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C21">
         <v>17</v>
@@ -2391,12 +2391,12 @@
         <v>57.3</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C22">
         <v>17</v>
@@ -2477,12 +2477,12 @@
         <v>-5.38</v>
       </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C23">
         <v>17</v>
@@ -2563,12 +2563,12 @@
         <v>42.62</v>
       </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C24">
         <v>17</v>
@@ -2649,12 +2649,12 @@
         <v>-27.95</v>
       </c>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C25">
         <v>17</v>
@@ -2735,12 +2735,12 @@
         <v>-2.99</v>
       </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C26">
         <v>17</v>
@@ -2821,12 +2821,12 @@
         <v>-29.99</v>
       </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C27">
         <v>17</v>
@@ -2907,12 +2907,12 @@
         <v>-32.520000000000003</v>
       </c>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C28">
         <v>17</v>
@@ -2993,12 +2993,12 @@
         <v>3.82</v>
       </c>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C29">
         <v>17</v>
@@ -3079,12 +3079,12 @@
         <v>-16.68</v>
       </c>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C30">
         <v>17</v>
@@ -3165,12 +3165,12 @@
         <v>-199.77</v>
       </c>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C31">
         <v>17</v>
@@ -3251,12 +3251,12 @@
         <v>-130.06</v>
       </c>
     </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C32">
         <v>17</v>
@@ -3337,12 +3337,12 @@
         <v>-157.57</v>
       </c>
     </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C33">
         <v>17</v>
@@ -3423,9 +3423,9 @@
         <v>-135.03</v>
       </c>
     </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D34">
         <v>370.1</v>
@@ -3503,9 +3503,9 @@
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D35">
         <v>11842</v>
@@ -3580,9 +3580,9 @@
         <v>11.6</v>
       </c>
     </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D36">
         <v>21.8</v>

--- a/Data/Offense_2023.csv.xlsx
+++ b/Data/Offense_2023.csv.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kobe/Desktop/TouchdownProphet/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\james\Desktop\Project_3\TouchdownProphet\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DB4AE4E-E144-2743-A752-DFE4819ED5C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{29C184F7-CF1A-47D3-9D6F-CDC1C3A1FCE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11300" xr2:uid="{A020B41B-D628-456C-881F-1B204A59DBDB}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11295" xr2:uid="{A020B41B-D628-456C-881F-1B204A59DBDB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -111,6 +111,12 @@
     <t>1st Downs by Penalty</t>
   </si>
   <si>
+    <t>% of Drives resulting in Offensive Score</t>
+  </si>
+  <si>
+    <t>% of Drives resulting in Turnover</t>
+  </si>
+  <si>
     <t>Expected points contributed by all Offense</t>
   </si>
   <si>
@@ -217,12 +223,6 @@
   </si>
   <si>
     <t>Avg Tm/G</t>
-  </si>
-  <si>
-    <t>% Drives resulting in Offensive Score</t>
-  </si>
-  <si>
-    <t>% Drives resulting in Turnover</t>
   </si>
 </sst>
 </file>
@@ -576,16 +576,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7014E262-2205-4563-9C45-B7856D51D066}">
   <dimension ref="A1:AB36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="AA1" sqref="AA1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="24.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -662,21 +662,21 @@
         <v>24</v>
       </c>
       <c r="Z1" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="AA1" t="s">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="AB1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C2">
         <v>17</v>
@@ -757,12 +757,12 @@
         <v>192.72</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C3">
         <v>17</v>
@@ -843,12 +843,12 @@
         <v>128.9</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C4">
         <v>17</v>
@@ -929,12 +929,12 @@
         <v>268.60000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C5">
         <v>17</v>
@@ -1015,12 +1015,12 @@
         <v>138.81</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C6">
         <v>17</v>
@@ -1101,12 +1101,12 @@
         <v>191.13</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C7">
         <v>17</v>
@@ -1187,12 +1187,12 @@
         <v>197.57</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C8">
         <v>17</v>
@@ -1273,12 +1273,12 @@
         <v>100.97</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C9">
         <v>17</v>
@@ -1359,12 +1359,12 @@
         <v>133.32</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C10">
         <v>17</v>
@@ -1445,12 +1445,12 @@
         <v>46.88</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C11">
         <v>17</v>
@@ -1531,12 +1531,12 @@
         <v>30.12</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C12">
         <v>17</v>
@@ -1617,12 +1617,12 @@
         <v>-110.55</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C13">
         <v>17</v>
@@ -1703,12 +1703,12 @@
         <v>156.77000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C14">
         <v>17</v>
@@ -1789,12 +1789,12 @@
         <v>44.11</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C15">
         <v>17</v>
@@ -1875,12 +1875,12 @@
         <v>13.64</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C16">
         <v>17</v>
@@ -1961,12 +1961,12 @@
         <v>87.96</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C17">
         <v>17</v>
@@ -2047,12 +2047,12 @@
         <v>41.53</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C18">
         <v>17</v>
@@ -2133,12 +2133,12 @@
         <v>62.33</v>
       </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C19">
         <v>17</v>
@@ -2219,12 +2219,12 @@
         <v>-10.73</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C20">
         <v>17</v>
@@ -2305,12 +2305,12 @@
         <v>7.68</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C21">
         <v>17</v>
@@ -2391,12 +2391,12 @@
         <v>57.3</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C22">
         <v>17</v>
@@ -2477,12 +2477,12 @@
         <v>-5.38</v>
       </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C23">
         <v>17</v>
@@ -2563,12 +2563,12 @@
         <v>42.62</v>
       </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C24">
         <v>17</v>
@@ -2649,12 +2649,12 @@
         <v>-27.95</v>
       </c>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C25">
         <v>17</v>
@@ -2735,12 +2735,12 @@
         <v>-2.99</v>
       </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C26">
         <v>17</v>
@@ -2821,12 +2821,12 @@
         <v>-29.99</v>
       </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C27">
         <v>17</v>
@@ -2907,12 +2907,12 @@
         <v>-32.520000000000003</v>
       </c>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C28">
         <v>17</v>
@@ -2993,12 +2993,12 @@
         <v>3.82</v>
       </c>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C29">
         <v>17</v>
@@ -3079,12 +3079,12 @@
         <v>-16.68</v>
       </c>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C30">
         <v>17</v>
@@ -3165,12 +3165,12 @@
         <v>-199.77</v>
       </c>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C31">
         <v>17</v>
@@ -3251,12 +3251,12 @@
         <v>-130.06</v>
       </c>
     </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C32">
         <v>17</v>
@@ -3337,12 +3337,12 @@
         <v>-157.57</v>
       </c>
     </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C33">
         <v>17</v>
@@ -3423,9 +3423,9 @@
         <v>-135.03</v>
       </c>
     </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D34">
         <v>370.1</v>
@@ -3503,9 +3503,9 @@
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D35">
         <v>11842</v>
@@ -3580,9 +3580,9 @@
         <v>11.6</v>
       </c>
     </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D36">
         <v>21.8</v>
